--- a/resources/experiment 1/metrics/R2/average time/Enfermedad renal terminal.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Enfermedad renal terminal.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9980607672812108</v>
+        <v>0.9980742600225115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9980607672812108</v>
+        <v>0.9979245381370389</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9980607672812108</v>
+        <v>0.9972143214415938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.998492560102246</v>
+        <v>0.9979749140221473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998492560102246</v>
+        <v>0.9979981910279716</v>
       </c>
       <c r="D4" t="n">
-        <v>0.998492560102246</v>
+        <v>0.9980492446967183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9907703929739723</v>
+        <v>0.9984340817383154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9907703929739723</v>
+        <v>0.9983524422285113</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9907703929739723</v>
+        <v>0.9983441989283793</v>
       </c>
     </row>
   </sheetData>
